--- a/biology/Médecine/Condyle_médial_du_tibia/Condyle_médial_du_tibia.xlsx
+++ b/biology/Médecine/Condyle_médial_du_tibia/Condyle_médial_du_tibia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Condyle_m%C3%A9dial_du_tibia</t>
+          <t>Condyle_médial_du_tibia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le condyle médial du tibia est la tête articulaire supérieure et médiale du tibia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Condyle_m%C3%A9dial_du_tibia</t>
+          <t>Condyle_médial_du_tibia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le condyle médial du tibia constitue le sommet médial du tibia. Sa face supérieure forme la partie médiale du plateau tibial et porte la surface articulaire du condyle médial du tibia faisant partie des surfaces articulaires supérieures du tibia.
 Il est plus volumineux que le condyle latéral du tibia et en est séparé par la surface intercondylaire.
